--- a/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
+++ b/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
@@ -7,19 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="customer" sheetId="1" r:id="rId1"/>
-    <sheet name="vendor" sheetId="2" r:id="rId2"/>
-    <sheet name="item" sheetId="3" r:id="rId3"/>
-    <sheet name="inventory" sheetId="4" r:id="rId4"/>
-    <sheet name="invoice" sheetId="5" r:id="rId5"/>
-    <sheet name="invoice_item" sheetId="6" r:id="rId6"/>
+    <sheet name="product" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
   </si>
@@ -27,58 +22,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>Alice Corp</t>
-  </si>
-  <si>
-    <t>Beta LLC</t>
-  </si>
-  <si>
-    <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>beta@example.com</t>
-  </si>
-  <si>
-    <t>Vendor A</t>
-  </si>
-  <si>
-    <t>Vendor B</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>vendor_id</t>
+    <t>in_stock</t>
   </si>
   <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Gadget</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>2024-08-01T10:00:00</t>
-  </si>
-  <si>
-    <t>2024-08-02T11:00:00</t>
-  </si>
-  <si>
-    <t>invoice_id</t>
+    <t>Sample Product</t>
   </si>
 </sst>
 </file>
@@ -436,92 +386,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -533,10 +400,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -544,165 +411,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C2">
-        <v>10.5</v>
-      </c>
-      <c r="D2">
+        <v>9.99</v>
+      </c>
+      <c r="D2" t="b">
         <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>5.75</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
+++ b/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
@@ -7,14 +7,19 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="product" sheetId="1" r:id="rId1"/>
+    <sheet name="customer" sheetId="1" r:id="rId1"/>
+    <sheet name="vendor" sheetId="2" r:id="rId2"/>
+    <sheet name="item" sheetId="3" r:id="rId3"/>
+    <sheet name="inventory" sheetId="4" r:id="rId4"/>
+    <sheet name="invoice" sheetId="5" r:id="rId5"/>
+    <sheet name="invoice_item" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -22,13 +27,58 @@
     <t>name</t>
   </si>
   <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Alice Corp</t>
+  </si>
+  <si>
+    <t>Beta LLC</t>
+  </si>
+  <si>
+    <t>alice@example.com</t>
+  </si>
+  <si>
+    <t>beta@example.com</t>
+  </si>
+  <si>
+    <t>Vendor A</t>
+  </si>
+  <si>
+    <t>Vendor B</t>
+  </si>
+  <si>
     <t>price</t>
   </si>
   <si>
-    <t>in_stock</t>
-  </si>
-  <si>
-    <t>Sample Product</t>
+    <t>vendor_id</t>
+  </si>
+  <si>
+    <t>Widget</t>
+  </si>
+  <si>
+    <t>Gadget</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>2024-08-01T10:00:00</t>
+  </si>
+  <si>
+    <t>2024-08-02T11:00:00</t>
+  </si>
+  <si>
+    <t>invoice_id</t>
   </si>
 </sst>
 </file>
@@ -386,9 +436,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
@@ -400,10 +533,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -411,13 +544,165 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>9.99</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
+        <v>10.5</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>5.75</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
+++ b/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
@@ -7,19 +7,28 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="customer" sheetId="1" r:id="rId1"/>
-    <sheet name="vendor" sheetId="2" r:id="rId2"/>
-    <sheet name="item" sheetId="3" r:id="rId3"/>
-    <sheet name="inventory" sheetId="4" r:id="rId4"/>
-    <sheet name="invoice" sheetId="5" r:id="rId5"/>
-    <sheet name="invoice_item" sheetId="6" r:id="rId6"/>
+    <sheet name="item_category" sheetId="1" r:id="rId1"/>
+    <sheet name="secondary_category" sheetId="2" r:id="rId2"/>
+    <sheet name="vendor" sheetId="3" r:id="rId3"/>
+    <sheet name="item" sheetId="4" r:id="rId4"/>
+    <sheet name="tax_group" sheetId="5" r:id="rId5"/>
+    <sheet name="cash_discount_group" sheetId="6" r:id="rId6"/>
+    <sheet name="price_group" sheetId="7" r:id="rId7"/>
+    <sheet name="inventory_location" sheetId="8" r:id="rId8"/>
+    <sheet name="inventory" sheetId="9" r:id="rId9"/>
+    <sheet name="salesperson" sheetId="10" r:id="rId10"/>
+    <sheet name="customer" sheetId="11" r:id="rId11"/>
+    <sheet name="purchase_order" sheetId="12" r:id="rId12"/>
+    <sheet name="purchase_order_item" sheetId="13" r:id="rId13"/>
+    <sheet name="invoice" sheetId="14" r:id="rId14"/>
+    <sheet name="invoice_item" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -27,55 +36,121 @@
     <t>name</t>
   </si>
   <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Beverages</t>
+  </si>
+  <si>
+    <t>Cold drinks and juices</t>
+  </si>
+  <si>
+    <t>Energy Drinks</t>
+  </si>
+  <si>
+    <t>Boost, Red Bull</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Coca-Cola Co.</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>COKE500</t>
+  </si>
+  <si>
+    <t>Coke 500ml</t>
+  </si>
+  <si>
+    <t>tax_percent</t>
+  </si>
+  <si>
+    <t>Standard Tax</t>
+  </si>
+  <si>
+    <t>discount_percent</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>5% Net 15</t>
+  </si>
+  <si>
+    <t>Net 15 days</t>
+  </si>
+  <si>
+    <t>markup_percent</t>
+  </si>
+  <si>
+    <t>Retail Pricing</t>
+  </si>
+  <si>
+    <t>Warehouse A</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
     <t>email</t>
   </si>
   <si>
-    <t>Alice Corp</t>
-  </si>
-  <si>
-    <t>Beta LLC</t>
-  </si>
-  <si>
-    <t>alice@example.com</t>
-  </si>
-  <si>
-    <t>beta@example.com</t>
-  </si>
-  <si>
-    <t>Vendor A</t>
-  </si>
-  <si>
-    <t>Vendor B</t>
-  </si>
-  <si>
-    <t>price</t>
+    <t>Ravi</t>
+  </si>
+  <si>
+    <t>ravi@jnq.com</t>
+  </si>
+  <si>
+    <t>Big Retailer Inc</t>
+  </si>
+  <si>
+    <t>9999999999</t>
   </si>
   <si>
     <t>vendor_id</t>
   </si>
   <si>
-    <t>Widget</t>
-  </si>
-  <si>
-    <t>Gadget</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>quantity</t>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>2024-07-01T10:00:00</t>
+  </si>
+  <si>
+    <t>Submitted</t>
+  </si>
+  <si>
+    <t>po_id</t>
+  </si>
+  <si>
+    <t>unit_price</t>
   </si>
   <si>
     <t>customer_id</t>
   </si>
   <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>2024-08-01T10:00:00</t>
-  </si>
-  <si>
-    <t>2024-08-02T11:00:00</t>
+    <t>2024-08-01T09:00:00</t>
+  </si>
+  <si>
+    <t>Draft</t>
   </si>
   <si>
     <t>invoice_id</t>
@@ -436,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,65 +536,87 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,68 +627,57 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
-        <v>10.5</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3">
-        <v>5.75</v>
-      </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -601,16 +687,201 @@
       <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="D2">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>1.25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>50</v>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
@@ -620,7 +891,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -631,78 +902,167 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
+      <c r="C2">
+        <v>7.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2">
+        <v>12.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
       <c r="C2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
+++ b/backend/clients/pioneer_wholesale_inc/test_data/test_data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="534">
   <si>
     <t>description</t>
   </si>
@@ -39,520 +39,1594 @@
     <t>name</t>
   </si>
   <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>reveal</t>
+  </si>
+  <si>
+    <t>officer</t>
+  </si>
+  <si>
+    <t>rise</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>partner</t>
+  </si>
+  <si>
+    <t>identify</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>game</t>
+  </si>
+  <si>
+    <t>imagine</t>
+  </si>
+  <si>
+    <t>arm</t>
+  </si>
+  <si>
+    <t>professional</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>ground</t>
+  </si>
+  <si>
+    <t>necessary</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>difference</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>treat</t>
+  </si>
+  <si>
+    <t>war</t>
+  </si>
+  <si>
+    <t>car</t>
+  </si>
+  <si>
+    <t>teach</t>
+  </si>
+  <si>
+    <t>suggest</t>
+  </si>
+  <si>
+    <t>theory</t>
+  </si>
+  <si>
+    <t>adult</t>
+  </si>
+  <si>
+    <t>Republican</t>
+  </si>
+  <si>
+    <t>into</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>dream</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>young</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>affect</t>
+  </si>
+  <si>
+    <t>watch</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>evidence</t>
+  </si>
+  <si>
+    <t>senior</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>outside</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>worker</t>
+  </si>
+  <si>
+    <t>accept</t>
+  </si>
+  <si>
+    <t>attorney</t>
+  </si>
+  <si>
+    <t>realize</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>human</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>experience</t>
+  </si>
+  <si>
+    <t>remain</t>
+  </si>
+  <si>
+    <t>leader</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>beyond</t>
+  </si>
+  <si>
+    <t>occur</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>garden</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>board</t>
+  </si>
+  <si>
+    <t>skin</t>
+  </si>
+  <si>
+    <t>reach</t>
+  </si>
+  <si>
+    <t>sea</t>
+  </si>
+  <si>
+    <t>hit</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>future</t>
+  </si>
+  <si>
+    <t>quickly</t>
+  </si>
+  <si>
+    <t>rather</t>
+  </si>
+  <si>
+    <t>relationship</t>
+  </si>
+  <si>
+    <t>almost</t>
+  </si>
+  <si>
+    <t>large</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>side</t>
+  </si>
+  <si>
+    <t>show</t>
+  </si>
+  <si>
+    <t>receive</t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>smile</t>
+  </si>
+  <si>
+    <t>push</t>
+  </si>
+  <si>
+    <t>form</t>
+  </si>
+  <si>
+    <t>development</t>
+  </si>
+  <si>
+    <t>eat</t>
+  </si>
+  <si>
+    <t>particular</t>
+  </si>
+  <si>
+    <t>his</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>contact_person</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>cell</t>
+  </si>
+  <si>
+    <t>service</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>heavy</t>
+  </si>
+  <si>
+    <t>rate</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>but</t>
+  </si>
+  <si>
+    <t>walk</t>
+  </si>
+  <si>
+    <t>anything</t>
+  </si>
+  <si>
+    <t>television</t>
+  </si>
+  <si>
+    <t>agreement</t>
+  </si>
+  <si>
+    <t>debate</t>
+  </si>
+  <si>
+    <t>decide</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>heart</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>town</t>
+  </si>
+  <si>
+    <t>relate</t>
+  </si>
+  <si>
+    <t>art</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>someone</t>
+  </si>
+  <si>
+    <t>seat</t>
+  </si>
+  <si>
+    <t>science</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>miss</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>claim</t>
+  </si>
+  <si>
+    <t>reflect</t>
+  </si>
+  <si>
+    <t>risk</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>over</t>
+  </si>
+  <si>
+    <t>whatever</t>
+  </si>
+  <si>
+    <t>able</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>suddenly</t>
+  </si>
+  <si>
+    <t>recognize</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>kid</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>race</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>herself</t>
+  </si>
+  <si>
+    <t>through</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>chair</t>
+  </si>
+  <si>
+    <t>goal</t>
+  </si>
+  <si>
+    <t>political</t>
+  </si>
+  <si>
+    <t>character</t>
+  </si>
+  <si>
+    <t>final</t>
+  </si>
+  <si>
+    <t>their</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>prevent</t>
+  </si>
+  <si>
+    <t>possible</t>
+  </si>
+  <si>
+    <t>under</t>
+  </si>
+  <si>
+    <t>itself</t>
+  </si>
+  <si>
+    <t>growth</t>
+  </si>
+  <si>
+    <t>because</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>assume</t>
+  </si>
+  <si>
+    <t>camera</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>together</t>
+  </si>
+  <si>
+    <t>return</t>
+  </si>
+  <si>
+    <t>night</t>
+  </si>
+  <si>
+    <t>tonight</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>fear</t>
+  </si>
+  <si>
+    <t>pass</t>
+  </si>
+  <si>
+    <t>should</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>specific</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>reality</t>
+  </si>
+  <si>
+    <t>conference</t>
+  </si>
+  <si>
+    <t>within</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>discuss</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>travel</t>
+  </si>
+  <si>
+    <t>Congress</t>
+  </si>
+  <si>
+    <t>administration</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>practice</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>during</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>peace</t>
+  </si>
+  <si>
+    <t>magazine</t>
+  </si>
+  <si>
+    <t>concern</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>cash_discount_group_id</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>item_code</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>price_group_id</t>
+  </si>
+  <si>
+    <t>secondary_category_id</t>
+  </si>
+  <si>
+    <t>tax_group_id</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>upc_code</t>
+  </si>
+  <si>
+    <t>vendor_id</t>
+  </si>
+  <si>
+    <t>cause</t>
+  </si>
+  <si>
+    <t>involve</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>doctor</t>
+  </si>
+  <si>
+    <t>teacher</t>
+  </si>
+  <si>
+    <t>ask</t>
+  </si>
+  <si>
+    <t>civil</t>
+  </si>
+  <si>
+    <t>entire</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>pick</t>
+  </si>
+  <si>
+    <t>campaign</t>
+  </si>
+  <si>
+    <t>argue</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>him</t>
+  </si>
+  <si>
+    <t>full</t>
+  </si>
+  <si>
+    <t>win</t>
+  </si>
+  <si>
+    <t>million</t>
+  </si>
+  <si>
+    <t>certain</t>
+  </si>
+  <si>
+    <t>tell</t>
+  </si>
+  <si>
+    <t>fly</t>
+  </si>
+  <si>
+    <t>prove</t>
+  </si>
+  <si>
+    <t>respond</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>majority</t>
+  </si>
+  <si>
+    <t>explain</t>
+  </si>
+  <si>
+    <t>everything</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>admit</t>
+  </si>
+  <si>
+    <t>big</t>
+  </si>
+  <si>
+    <t>themselves</t>
+  </si>
+  <si>
+    <t>often</t>
+  </si>
+  <si>
+    <t>success</t>
+  </si>
+  <si>
+    <t>capital</t>
+  </si>
+  <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>spend</t>
+  </si>
+  <si>
+    <t>lose</t>
+  </si>
+  <si>
+    <t>yourself</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>hospital</t>
+  </si>
+  <si>
+    <t>American</t>
+  </si>
+  <si>
+    <t>natural</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>four</t>
+  </si>
+  <si>
+    <t>southern</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>activity</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>commercial</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>trouble</t>
+  </si>
+  <si>
+    <t>usually</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>approach</t>
+  </si>
+  <si>
+    <t>audience</t>
+  </si>
+  <si>
+    <t>discussion</t>
+  </si>
+  <si>
+    <t>various</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>worry</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>choose</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>five</t>
+  </si>
+  <si>
+    <t>interview</t>
+  </si>
+  <si>
+    <t>play</t>
+  </si>
+  <si>
+    <t>crime</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>against</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>act</t>
+  </si>
+  <si>
+    <t>short</t>
+  </si>
+  <si>
+    <t>former</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>tax_percent</t>
+  </si>
+  <si>
     <t>skill</t>
   </si>
   <si>
-    <t>late</t>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>take</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>bag</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>choice</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>pull</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>owner</t>
+  </si>
+  <si>
+    <t>try</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>discount_percent</t>
+  </si>
+  <si>
+    <t>terms</t>
+  </si>
+  <si>
+    <t>sort</t>
+  </si>
+  <si>
+    <t>bit</t>
+  </si>
+  <si>
+    <t>society</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>measure</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>our</t>
+  </si>
+  <si>
+    <t>although</t>
+  </si>
+  <si>
+    <t>bill</t>
+  </si>
+  <si>
+    <t>whom</t>
+  </si>
+  <si>
+    <t>either</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>evening</t>
+  </si>
+  <si>
+    <t>glass</t>
+  </si>
+  <si>
+    <t>economic</t>
+  </si>
+  <si>
+    <t>any</t>
+  </si>
+  <si>
+    <t>sign</t>
+  </si>
+  <si>
+    <t>recently</t>
+  </si>
+  <si>
+    <t>research</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>onto</t>
+  </si>
+  <si>
+    <t>next</t>
+  </si>
+  <si>
+    <t>employee</t>
+  </si>
+  <si>
+    <t>writer</t>
+  </si>
+  <si>
+    <t>popular</t>
+  </si>
+  <si>
+    <t>guy</t>
+  </si>
+  <si>
+    <t>rock</t>
+  </si>
+  <si>
+    <t>markup_percent</t>
+  </si>
+  <si>
+    <t>record</t>
+  </si>
+  <si>
+    <t>article</t>
+  </si>
+  <si>
+    <t>himself</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>wind</t>
+  </si>
+  <si>
+    <t>myself</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>environmental</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>pressure</t>
+  </si>
+  <si>
+    <t>pay</t>
+  </si>
+  <si>
+    <t>child</t>
+  </si>
+  <si>
+    <t>international</t>
+  </si>
+  <si>
+    <t>charge</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>apply</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>improve</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>mother</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>here</t>
+  </si>
+  <si>
+    <t>drug</t>
+  </si>
+  <si>
+    <t>style</t>
+  </si>
+  <si>
+    <t>bring</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>those</t>
+  </si>
+  <si>
+    <t>three</t>
+  </si>
+  <si>
+    <t>wait</t>
+  </si>
+  <si>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>medical</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>sound</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>near</t>
+  </si>
+  <si>
+    <t>manage</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>sport</t>
+  </si>
+  <si>
+    <t>memory</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>college</t>
+  </si>
+  <si>
+    <t>item_id</t>
+  </si>
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>manager</t>
+  </si>
+  <si>
+    <t>control</t>
+  </si>
+  <si>
+    <t>thousand</t>
+  </si>
+  <si>
+    <t>these</t>
+  </si>
+  <si>
+    <t>listen</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>professor</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>body</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>pretty</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>physical</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>ten</t>
+  </si>
+  <si>
+    <t>benefit</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>sometimes</t>
+  </si>
+  <si>
+    <t>enter</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>significant</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>until</t>
+  </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>appear</t>
+  </si>
+  <si>
+    <t>language</t>
+  </si>
+  <si>
+    <t>off</t>
+  </si>
+  <si>
+    <t>agency</t>
+  </si>
+  <si>
+    <t>early</t>
+  </si>
+  <si>
+    <t>say</t>
+  </si>
+  <si>
+    <t>credit_limit</t>
+  </si>
+  <si>
+    <t>salesperson_id</t>
+  </si>
+  <si>
+    <t>arrive</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>perhaps</t>
+  </si>
+  <si>
+    <t>ahead</t>
+  </si>
+  <si>
+    <t>threat</t>
+  </si>
+  <si>
+    <t>fight</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>central</t>
+  </si>
+  <si>
+    <t>wide</t>
+  </si>
+  <si>
+    <t>tree</t>
+  </si>
+  <si>
+    <t>expect</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>main</t>
+  </si>
+  <si>
+    <t>station</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>allow</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>fall</t>
+  </si>
+  <si>
+    <t>suffer</t>
+  </si>
+  <si>
+    <t>customer</t>
+  </si>
+  <si>
+    <t>reason</t>
+  </si>
+  <si>
+    <t>rich</t>
+  </si>
+  <si>
+    <t>quite</t>
+  </si>
+  <si>
+    <t>matter</t>
   </si>
   <si>
     <t>anyone</t>
   </si>
   <si>
-    <t>executive</t>
-  </si>
-  <si>
-    <t>clear</t>
-  </si>
-  <si>
-    <t>bed</t>
-  </si>
-  <si>
-    <t>send</t>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>agree</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
+    <t>view</t>
+  </si>
+  <si>
+    <t>successful</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>lay</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>nothing</t>
+  </si>
+  <si>
+    <t>scientist</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>quality</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>trade</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>democratic</t>
+  </si>
+  <si>
+    <t>fact</t>
+  </si>
+  <si>
+    <t>hotel</t>
   </si>
   <si>
     <t>population</t>
   </si>
   <si>
-    <t>simply</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>because</t>
-  </si>
-  <si>
-    <t>cell</t>
-  </si>
-  <si>
-    <t>decade</t>
-  </si>
-  <si>
-    <t>property</t>
-  </si>
-  <si>
-    <t>firm</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>artist</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>contact_person</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>apply</t>
-  </si>
-  <si>
-    <t>career</t>
-  </si>
-  <si>
-    <t>worry</t>
+    <t>eight</t>
+  </si>
+  <si>
+    <t>training</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>religious</t>
+  </si>
+  <si>
+    <t>finish</t>
+  </si>
+  <si>
+    <t>po_id</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>he</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>nearly</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>opportunity</t>
+  </si>
+  <si>
+    <t>church</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>along</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>inside</t>
   </si>
   <si>
     <t>somebody</t>
   </si>
   <si>
-    <t>ago</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>represent</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>relate</t>
-  </si>
-  <si>
-    <t>lay</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>have</t>
-  </si>
-  <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>it</t>
-  </si>
-  <si>
-    <t>bag</t>
-  </si>
-  <si>
-    <t>message</t>
-  </si>
-  <si>
-    <t>push</t>
-  </si>
-  <si>
-    <t>follow</t>
-  </si>
-  <si>
-    <t>imagine</t>
-  </si>
-  <si>
-    <t>mouth</t>
-  </si>
-  <si>
-    <t>if</t>
-  </si>
-  <si>
-    <t>throughout</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>cash_discount_group_id</t>
-  </si>
-  <si>
-    <t>category_id</t>
-  </si>
-  <si>
-    <t>item_code</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>price_group_id</t>
-  </si>
-  <si>
-    <t>secondary_category_id</t>
-  </si>
-  <si>
-    <t>tax_group_id</t>
-  </si>
-  <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>upc_code</t>
-  </si>
-  <si>
-    <t>vendor_id</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>spend</t>
-  </si>
-  <si>
-    <t>as</t>
-  </si>
-  <si>
-    <t>hospital</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>finally</t>
-  </si>
-  <si>
-    <t>should</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>enter</t>
-  </si>
-  <si>
-    <t>crime</t>
-  </si>
-  <si>
-    <t>recent</t>
-  </si>
-  <si>
-    <t>north</t>
-  </si>
-  <si>
-    <t>suggest</t>
-  </si>
-  <si>
-    <t>religious</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>kid</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>pattern</t>
-  </si>
-  <si>
-    <t>street</t>
-  </si>
-  <si>
-    <t>oil</t>
-  </si>
-  <si>
-    <t>bring</t>
-  </si>
-  <si>
-    <t>tax_percent</t>
-  </si>
-  <si>
-    <t>southern</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>able</t>
-  </si>
-  <si>
-    <t>discount_percent</t>
-  </si>
-  <si>
-    <t>terms</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>seem</t>
-  </si>
-  <si>
-    <t>same</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>contain</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>through</t>
-  </si>
-  <si>
-    <t>prove</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>markup_percent</t>
-  </si>
-  <si>
-    <t>full</t>
-  </si>
-  <si>
-    <t>again</t>
-  </si>
-  <si>
-    <t>space</t>
-  </si>
-  <si>
-    <t>question</t>
-  </si>
-  <si>
-    <t>understand</t>
-  </si>
-  <si>
-    <t>fight</t>
-  </si>
-  <si>
-    <t>expect</t>
-  </si>
-  <si>
-    <t>thousand</t>
-  </si>
-  <si>
-    <t>budget</t>
-  </si>
-  <si>
-    <t>box</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>item_id</t>
-  </si>
-  <si>
-    <t>location_id</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>bar</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>security</t>
-  </si>
-  <si>
-    <t>raise</t>
-  </si>
-  <si>
-    <t>drug</t>
-  </si>
-  <si>
-    <t>clearly</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>ability</t>
-  </si>
-  <si>
-    <t>behavior</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>generation</t>
-  </si>
-  <si>
-    <t>credit_limit</t>
-  </si>
-  <si>
-    <t>salesperson_id</t>
-  </si>
-  <si>
-    <t>figure</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>blue</t>
-  </si>
-  <si>
-    <t>movement</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>surface</t>
-  </si>
-  <si>
-    <t>talk</t>
-  </si>
-  <si>
-    <t>measure</t>
-  </si>
-  <si>
-    <t>tree</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>grow</t>
-  </si>
-  <si>
-    <t>such</t>
-  </si>
-  <si>
-    <t>child</t>
-  </si>
-  <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>democratic</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>2025-01-06T12:37:19.756205</t>
-  </si>
-  <si>
-    <t>2025-04-02T03:32:15.787115</t>
-  </si>
-  <si>
-    <t>2025-04-25T08:40:37.096844</t>
-  </si>
-  <si>
-    <t>2025-05-08T16:50:36.757277</t>
-  </si>
-  <si>
-    <t>2025-05-11T17:21:22.310085</t>
-  </si>
-  <si>
-    <t>describe</t>
-  </si>
-  <si>
-    <t>range</t>
-  </si>
-  <si>
-    <t>student</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>consider</t>
-  </si>
-  <si>
-    <t>po_id</t>
-  </si>
-  <si>
-    <t>unit_price</t>
-  </si>
-  <si>
-    <t>customer_id</t>
-  </si>
-  <si>
-    <t>2025-04-05T10:46:03.390120</t>
-  </si>
-  <si>
-    <t>2025-05-01T08:33:29.113025</t>
-  </si>
-  <si>
-    <t>2025-05-24T06:10:38.280398</t>
-  </si>
-  <si>
-    <t>2025-06-25T14:55:45.067329</t>
-  </si>
-  <si>
-    <t>2025-05-13T15:32:57.519068</t>
-  </si>
-  <si>
-    <t>eat</t>
-  </si>
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>treat</t>
-  </si>
-  <si>
-    <t>become</t>
-  </si>
-  <si>
-    <t>over</t>
+    <t>keep</t>
   </si>
   <si>
     <t>invoice_id</t>
@@ -562,6 +1636,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -614,11 +1691,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -913,7 +1991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,10 +2013,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>8100</v>
+        <v>2587</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -946,10 +2024,10 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>8027</v>
+        <v>599</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -957,10 +2035,10 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>8212</v>
+        <v>2666</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -968,10 +2046,10 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>9131</v>
+        <v>9268</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -979,10 +2057,230 @@
         <v>7</v>
       </c>
       <c r="B6">
-        <v>6971</v>
+        <v>6106</v>
       </c>
       <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>54</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8">
+        <v>653</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8302</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>6899</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
         <v>12</v>
+      </c>
+      <c r="B11">
+        <v>4652</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12">
+        <v>4632</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13">
+        <v>5193</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <v>529</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>1822</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>9370</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>9443</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>3104</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>3853</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20">
+        <v>6707</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>9715</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22">
+        <v>1535</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>4654</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>6294</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>8382</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>5789</v>
+      </c>
+      <c r="C26" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -992,7 +2290,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1000,7 +2298,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -1009,77 +2307,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>314</v>
       </c>
       <c r="B2">
-        <v>9150</v>
+        <v>2448</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>422</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>407</v>
       </c>
       <c r="B3">
-        <v>1734</v>
+        <v>935</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>130</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>296</v>
       </c>
       <c r="B4">
-        <v>4312</v>
+        <v>4121</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>423</v>
       </c>
       <c r="D4" t="s">
-        <v>49</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>408</v>
       </c>
       <c r="B5">
-        <v>1438</v>
+        <v>7414</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>424</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>355</v>
       </c>
       <c r="B6">
-        <v>2028</v>
+        <v>7738</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>425</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7">
+        <v>3700</v>
+      </c>
+      <c r="C7" t="s">
+        <v>302</v>
+      </c>
+      <c r="D7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B8">
+        <v>9609</v>
+      </c>
+      <c r="C8" t="s">
+        <v>390</v>
+      </c>
+      <c r="D8" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>411</v>
+      </c>
+      <c r="B9">
+        <v>3975</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>412</v>
+      </c>
+      <c r="B10">
+        <v>6435</v>
+      </c>
+      <c r="C10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D10" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B11">
+        <v>1487</v>
+      </c>
+      <c r="C11" t="s">
+        <v>427</v>
+      </c>
+      <c r="D11" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12">
+        <v>3552</v>
+      </c>
+      <c r="C12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>262</v>
+      </c>
+      <c r="B13">
+        <v>5976</v>
+      </c>
+      <c r="C13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>414</v>
+      </c>
+      <c r="B14">
+        <v>4491</v>
+      </c>
+      <c r="C14" t="s">
+        <v>428</v>
+      </c>
+      <c r="D14" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B15">
+        <v>3313</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16">
+        <v>8613</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>415</v>
+      </c>
+      <c r="B17">
+        <v>1799</v>
+      </c>
+      <c r="C17" t="s">
+        <v>429</v>
+      </c>
+      <c r="D17" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>416</v>
+      </c>
+      <c r="B18">
+        <v>8922</v>
+      </c>
+      <c r="C18" t="s">
+        <v>430</v>
+      </c>
+      <c r="D18" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19">
+        <v>1910</v>
+      </c>
+      <c r="C19" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>418</v>
+      </c>
+      <c r="B20">
+        <v>4976</v>
+      </c>
+      <c r="C20" t="s">
+        <v>431</v>
+      </c>
+      <c r="D20" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>399</v>
+      </c>
+      <c r="B21">
+        <v>2799</v>
+      </c>
+      <c r="C21" t="s">
+        <v>117</v>
+      </c>
+      <c r="D21" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>103</v>
+      </c>
+      <c r="B22">
+        <v>7491</v>
+      </c>
+      <c r="C22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23">
+        <v>5058</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>420</v>
+      </c>
+      <c r="B24">
+        <v>9466</v>
+      </c>
+      <c r="C24" t="s">
+        <v>185</v>
+      </c>
+      <c r="D24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>421</v>
+      </c>
+      <c r="B25">
+        <v>6197</v>
+      </c>
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>9363</v>
+      </c>
+      <c r="C26" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +2667,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1097,13 +2675,13 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>449</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1112,125 +2690,585 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>134</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>135</v>
+        <v>352</v>
       </c>
       <c r="B2">
-        <v>8066.23</v>
+        <v>1099.62</v>
       </c>
       <c r="C2" t="s">
-        <v>139</v>
+        <v>465</v>
       </c>
       <c r="D2">
-        <v>3506</v>
+        <v>6691</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>480</v>
       </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>491</v>
       </c>
       <c r="G2">
-        <v>2125</v>
+        <v>9240</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>398</v>
       </c>
       <c r="B3">
-        <v>734.96</v>
+        <v>975.02</v>
       </c>
       <c r="C3" t="s">
-        <v>140</v>
+        <v>466</v>
       </c>
       <c r="D3">
-        <v>9100</v>
+        <v>6560</v>
       </c>
       <c r="E3" t="s">
-        <v>102</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>492</v>
       </c>
       <c r="G3">
-        <v>5013</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="B4">
-        <v>1409.71</v>
+        <v>5456.72</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>309</v>
       </c>
       <c r="D4">
-        <v>7496</v>
+        <v>5961</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>481</v>
       </c>
       <c r="F4" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="G4">
-        <v>4647</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>137</v>
+        <v>451</v>
       </c>
       <c r="B5">
-        <v>8347.16</v>
+        <v>4302.02</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>467</v>
       </c>
       <c r="D5">
-        <v>924</v>
+        <v>5673</v>
       </c>
       <c r="E5" t="s">
-        <v>144</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>148</v>
+        <v>493</v>
       </c>
       <c r="G5">
-        <v>5758</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>232</v>
       </c>
       <c r="B6">
-        <v>114.15</v>
+        <v>9116.950000000001</v>
       </c>
       <c r="C6" t="s">
-        <v>142</v>
+        <v>463</v>
       </c>
       <c r="D6">
-        <v>4063</v>
+        <v>7238</v>
       </c>
       <c r="E6" t="s">
-        <v>145</v>
+        <v>482</v>
       </c>
       <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>5786</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>452</v>
+      </c>
+      <c r="B7">
+        <v>6363.72</v>
+      </c>
+      <c r="C7" t="s">
+        <v>468</v>
+      </c>
+      <c r="D7">
+        <v>2420</v>
+      </c>
+      <c r="E7" t="s">
+        <v>483</v>
+      </c>
+      <c r="F7" t="s">
+        <v>477</v>
+      </c>
+      <c r="G7">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8">
+        <v>8151.5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>366</v>
+      </c>
+      <c r="D8">
+        <v>8152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>484</v>
+      </c>
+      <c r="F8" t="s">
+        <v>290</v>
+      </c>
+      <c r="G8">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B9">
+        <v>5570.68</v>
+      </c>
+      <c r="C9" t="s">
+        <v>469</v>
+      </c>
+      <c r="D9">
+        <v>5174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>397</v>
+      </c>
+      <c r="F9" t="s">
+        <v>421</v>
+      </c>
+      <c r="G9">
+        <v>9415</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>454</v>
+      </c>
+      <c r="B10">
+        <v>1512.46</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10">
+        <v>4954</v>
+      </c>
+      <c r="E10" t="s">
+        <v>485</v>
+      </c>
+      <c r="F10" t="s">
+        <v>328</v>
+      </c>
+      <c r="G10">
+        <v>5734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B11">
+        <v>9545.82</v>
+      </c>
+      <c r="C11" t="s">
+        <v>470</v>
+      </c>
+      <c r="D11">
+        <v>1003</v>
+      </c>
+      <c r="E11" t="s">
+        <v>344</v>
+      </c>
+      <c r="F11" t="s">
+        <v>494</v>
+      </c>
+      <c r="G11">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B12">
+        <v>5893.16</v>
+      </c>
+      <c r="C12" t="s">
+        <v>274</v>
+      </c>
+      <c r="D12">
+        <v>3640</v>
+      </c>
+      <c r="E12" t="s">
+        <v>486</v>
+      </c>
+      <c r="F12" t="s">
+        <v>401</v>
+      </c>
+      <c r="G12">
+        <v>5976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>456</v>
+      </c>
+      <c r="B13">
+        <v>7993.62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>392</v>
+      </c>
+      <c r="D13">
+        <v>5586</v>
+      </c>
+      <c r="E13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F13" t="s">
+        <v>363</v>
+      </c>
+      <c r="G13">
+        <v>3040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14">
+        <v>1078.84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>271</v>
+      </c>
+      <c r="D14">
+        <v>621</v>
+      </c>
+      <c r="E14" t="s">
+        <v>241</v>
+      </c>
+      <c r="F14" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14">
+        <v>9289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>457</v>
+      </c>
+      <c r="B15">
+        <v>328.51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>471</v>
+      </c>
+      <c r="D15">
+        <v>2849</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>5138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>252</v>
+      </c>
+      <c r="B16">
+        <v>9281.82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>472</v>
+      </c>
+      <c r="D16">
+        <v>9344</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" t="s">
+        <v>495</v>
+      </c>
+      <c r="G16">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17">
+        <v>3981.59</v>
+      </c>
+      <c r="C17" t="s">
+        <v>473</v>
+      </c>
+      <c r="D17">
+        <v>6663</v>
+      </c>
+      <c r="E17" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" t="s">
+        <v>377</v>
+      </c>
+      <c r="G17">
+        <v>4967</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18">
+        <v>5118.38</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18">
+        <v>8350</v>
+      </c>
+      <c r="E18" t="s">
         <v>149</v>
       </c>
-      <c r="G6">
-        <v>727</v>
+      <c r="F18" t="s">
+        <v>496</v>
+      </c>
+      <c r="G18">
+        <v>3944</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>459</v>
+      </c>
+      <c r="B19">
+        <v>8569.280000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19">
+        <v>9066</v>
+      </c>
+      <c r="E19" t="s">
+        <v>263</v>
+      </c>
+      <c r="F19" t="s">
+        <v>497</v>
+      </c>
+      <c r="G19">
+        <v>8216</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="s">
+        <v>460</v>
+      </c>
+      <c r="B20">
+        <v>2559.71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20">
+        <v>5201</v>
+      </c>
+      <c r="E20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F20" t="s">
+        <v>452</v>
+      </c>
+      <c r="G20">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21">
+        <v>4274.85</v>
+      </c>
+      <c r="C21" t="s">
+        <v>474</v>
+      </c>
+      <c r="D21">
+        <v>5004</v>
+      </c>
+      <c r="E21" t="s">
+        <v>223</v>
+      </c>
+      <c r="F21" t="s">
+        <v>187</v>
+      </c>
+      <c r="G21">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="s">
+        <v>461</v>
+      </c>
+      <c r="B22">
+        <v>3724.83</v>
+      </c>
+      <c r="C22" t="s">
+        <v>475</v>
+      </c>
+      <c r="D22">
+        <v>2148</v>
+      </c>
+      <c r="E22" t="s">
+        <v>488</v>
+      </c>
+      <c r="F22" t="s">
+        <v>498</v>
+      </c>
+      <c r="G22">
+        <v>7116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="s">
+        <v>462</v>
+      </c>
+      <c r="B23">
+        <v>7125.47</v>
+      </c>
+      <c r="C23" t="s">
+        <v>476</v>
+      </c>
+      <c r="D23">
+        <v>8399</v>
+      </c>
+      <c r="E23" t="s">
+        <v>137</v>
+      </c>
+      <c r="F23" t="s">
+        <v>499</v>
+      </c>
+      <c r="G23">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24">
+        <v>7558.58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>477</v>
+      </c>
+      <c r="D24">
+        <v>9535</v>
+      </c>
+      <c r="E24" t="s">
+        <v>489</v>
+      </c>
+      <c r="F24" t="s">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <v>8427</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>464</v>
+      </c>
+      <c r="B25">
+        <v>8458.16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>478</v>
+      </c>
+      <c r="D25">
+        <v>1731</v>
+      </c>
+      <c r="E25" t="s">
+        <v>490</v>
+      </c>
+      <c r="F25" t="s">
+        <v>254</v>
+      </c>
+      <c r="G25">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26">
+        <v>4566.55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26">
+        <v>3138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="F26" t="s">
+        <v>501</v>
+      </c>
+      <c r="G26">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -1240,7 +3278,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1248,86 +3286,366 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>502</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>151</v>
+        <v>503</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>152</v>
+      <c r="A2" s="2">
+        <v>45689.73810343315</v>
       </c>
       <c r="B2">
-        <v>3121</v>
+        <v>3414</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>504</v>
       </c>
       <c r="D2">
-        <v>4114</v>
+        <v>7558</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>153</v>
+      <c r="A3" s="2">
+        <v>45745.40910725555</v>
       </c>
       <c r="B3">
-        <v>4197</v>
+        <v>5502</v>
       </c>
       <c r="C3" t="s">
-        <v>158</v>
+        <v>505</v>
       </c>
       <c r="D3">
-        <v>9528</v>
+        <v>5378</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>154</v>
+      <c r="A4" s="2">
+        <v>45766.33373649797</v>
       </c>
       <c r="B4">
-        <v>307</v>
+        <v>1361</v>
       </c>
       <c r="C4" t="s">
-        <v>159</v>
+        <v>506</v>
       </c>
       <c r="D4">
-        <v>5060</v>
+        <v>9752</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>155</v>
+      <c r="A5" s="2">
+        <v>45792.64666446608</v>
       </c>
       <c r="B5">
-        <v>1461</v>
+        <v>9687</v>
       </c>
       <c r="C5" t="s">
-        <v>160</v>
+        <v>507</v>
       </c>
       <c r="D5">
-        <v>6716</v>
+        <v>4537</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>156</v>
+      <c r="A6" s="2">
+        <v>45841.23785558868</v>
       </c>
       <c r="B6">
-        <v>1240</v>
+        <v>6352</v>
       </c>
       <c r="C6" t="s">
-        <v>161</v>
+        <v>508</v>
       </c>
       <c r="D6">
-        <v>3969</v>
+        <v>9762</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
+        <v>45767.42790957874</v>
+      </c>
+      <c r="B7">
+        <v>7101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D7">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
+        <v>45756.57095482463</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8">
+        <v>7686</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
+        <v>45844.02085741344</v>
+      </c>
+      <c r="B9">
+        <v>8223</v>
+      </c>
+      <c r="C9" t="s">
+        <v>509</v>
+      </c>
+      <c r="D9">
+        <v>9547</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
+        <v>45775.46459736546</v>
+      </c>
+      <c r="B10">
+        <v>9930</v>
+      </c>
+      <c r="C10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D10">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
+        <v>45742.97170687491</v>
+      </c>
+      <c r="B11">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11">
+        <v>3372</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
+        <v>45827.65264610877</v>
+      </c>
+      <c r="B12">
+        <v>9377</v>
+      </c>
+      <c r="C12" t="s">
+        <v>298</v>
+      </c>
+      <c r="D12">
+        <v>8854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
+        <v>45762.43046047394</v>
+      </c>
+      <c r="B13">
+        <v>3775</v>
+      </c>
+      <c r="C13" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13">
+        <v>4129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
+        <v>45825.51091575684</v>
+      </c>
+      <c r="B14">
+        <v>5888</v>
+      </c>
+      <c r="C14" t="s">
+        <v>472</v>
+      </c>
+      <c r="D14">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
+        <v>45679.71719170524</v>
+      </c>
+      <c r="B15">
+        <v>8025</v>
+      </c>
+      <c r="C15" t="s">
+        <v>497</v>
+      </c>
+      <c r="D15">
+        <v>8060</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
+        <v>45727.07875344267</v>
+      </c>
+      <c r="B16">
+        <v>9255</v>
+      </c>
+      <c r="C16" t="s">
+        <v>510</v>
+      </c>
+      <c r="D16">
+        <v>4791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2">
+        <v>45671.41364180121</v>
+      </c>
+      <c r="B17">
+        <v>4429</v>
+      </c>
+      <c r="C17" t="s">
+        <v>206</v>
+      </c>
+      <c r="D17">
+        <v>7836</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2">
+        <v>45776.34633140014</v>
+      </c>
+      <c r="B18">
+        <v>6784</v>
+      </c>
+      <c r="C18" t="s">
+        <v>358</v>
+      </c>
+      <c r="D18">
+        <v>7904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2">
+        <v>45839.04637359925</v>
+      </c>
+      <c r="B19">
+        <v>5848</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2">
+        <v>45743.2626667667</v>
+      </c>
+      <c r="B20">
+        <v>3137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>466</v>
+      </c>
+      <c r="D20">
+        <v>9017</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2">
+        <v>45739.4970554033</v>
+      </c>
+      <c r="B21">
+        <v>6664</v>
+      </c>
+      <c r="C21" t="s">
+        <v>511</v>
+      </c>
+      <c r="D21">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2">
+        <v>45775.36349345923</v>
+      </c>
+      <c r="B22">
+        <v>3099</v>
+      </c>
+      <c r="C22" t="s">
+        <v>512</v>
+      </c>
+      <c r="D22">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2">
+        <v>45797.87274808451</v>
+      </c>
+      <c r="B23">
+        <v>9967</v>
+      </c>
+      <c r="C23" t="s">
+        <v>485</v>
+      </c>
+      <c r="D23">
+        <v>7055</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2">
+        <v>45798.622390093</v>
+      </c>
+      <c r="B24">
+        <v>3680</v>
+      </c>
+      <c r="C24" t="s">
+        <v>245</v>
+      </c>
+      <c r="D24">
+        <v>7830</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2">
+        <v>45766.64327451617</v>
+      </c>
+      <c r="B25">
+        <v>3817</v>
+      </c>
+      <c r="C25" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25">
+        <v>6221</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>45675.60133003984</v>
+      </c>
+      <c r="B26">
+        <v>6369</v>
+      </c>
+      <c r="C26" t="s">
+        <v>513</v>
+      </c>
+      <c r="D26">
+        <v>5349</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +3655,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1345,86 +3663,366 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>162</v>
+        <v>514</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>163</v>
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>6310</v>
+        <v>8610</v>
       </c>
       <c r="B2">
-        <v>8304</v>
+        <v>5961</v>
       </c>
       <c r="C2">
-        <v>9479</v>
+        <v>4651</v>
       </c>
       <c r="D2">
-        <v>6226.32</v>
+        <v>66.98999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>4530</v>
+        <v>3449</v>
       </c>
       <c r="B3">
-        <v>3775</v>
+        <v>3971</v>
       </c>
       <c r="C3">
-        <v>2489</v>
+        <v>7411</v>
       </c>
       <c r="D3">
-        <v>9466.889999999999</v>
+        <v>8343.120000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>6523</v>
+        <v>6347</v>
       </c>
       <c r="B4">
-        <v>8586</v>
+        <v>541</v>
       </c>
       <c r="C4">
-        <v>648</v>
+        <v>2461</v>
       </c>
       <c r="D4">
-        <v>5899.12</v>
+        <v>6470.27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>5261</v>
+        <v>8474</v>
       </c>
       <c r="B5">
-        <v>8272</v>
+        <v>5737</v>
       </c>
       <c r="C5">
-        <v>226</v>
+        <v>9360</v>
       </c>
       <c r="D5">
-        <v>9212.93</v>
+        <v>9222.4</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>1953</v>
+        <v>2011</v>
       </c>
       <c r="B6">
-        <v>634</v>
+        <v>4173</v>
       </c>
       <c r="C6">
-        <v>4389</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>5583.38</v>
+        <v>6637.93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>7670</v>
+      </c>
+      <c r="B7">
+        <v>4127</v>
+      </c>
+      <c r="C7">
+        <v>2625</v>
+      </c>
+      <c r="D7">
+        <v>6320.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>1845</v>
+      </c>
+      <c r="B8">
+        <v>8321</v>
+      </c>
+      <c r="C8">
+        <v>3212</v>
+      </c>
+      <c r="D8">
+        <v>524.6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>1796</v>
+      </c>
+      <c r="B9">
+        <v>9629</v>
+      </c>
+      <c r="C9">
+        <v>8231</v>
+      </c>
+      <c r="D9">
+        <v>1135.51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2187</v>
+      </c>
+      <c r="B10">
+        <v>1597</v>
+      </c>
+      <c r="C10">
+        <v>5092</v>
+      </c>
+      <c r="D10">
+        <v>966.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>5674</v>
+      </c>
+      <c r="B11">
+        <v>4874</v>
+      </c>
+      <c r="C11">
+        <v>7845</v>
+      </c>
+      <c r="D11">
+        <v>9165.459999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>5648</v>
+      </c>
+      <c r="B12">
+        <v>4838</v>
+      </c>
+      <c r="C12">
+        <v>5120</v>
+      </c>
+      <c r="D12">
+        <v>9301.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>6977</v>
+      </c>
+      <c r="B13">
+        <v>2032</v>
+      </c>
+      <c r="C13">
+        <v>3390</v>
+      </c>
+      <c r="D13">
+        <v>5559.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>6094</v>
+      </c>
+      <c r="B14">
+        <v>2515</v>
+      </c>
+      <c r="C14">
+        <v>4268</v>
+      </c>
+      <c r="D14">
+        <v>3015.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>9137</v>
+      </c>
+      <c r="B15">
+        <v>4394</v>
+      </c>
+      <c r="C15">
+        <v>5790</v>
+      </c>
+      <c r="D15">
+        <v>8051.45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>4777</v>
+      </c>
+      <c r="B16">
+        <v>4659</v>
+      </c>
+      <c r="C16">
+        <v>3813</v>
+      </c>
+      <c r="D16">
+        <v>8228.959999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>1298</v>
+      </c>
+      <c r="B17">
+        <v>9693</v>
+      </c>
+      <c r="C17">
+        <v>2672</v>
+      </c>
+      <c r="D17">
+        <v>9590.459999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>970</v>
+      </c>
+      <c r="B18">
+        <v>9490</v>
+      </c>
+      <c r="C18">
+        <v>1214</v>
+      </c>
+      <c r="D18">
+        <v>8881.4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>652</v>
+      </c>
+      <c r="B19">
+        <v>1430</v>
+      </c>
+      <c r="C19">
+        <v>196</v>
+      </c>
+      <c r="D19">
+        <v>4209.05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>2965</v>
+      </c>
+      <c r="B20">
+        <v>5140</v>
+      </c>
+      <c r="C20">
+        <v>8443</v>
+      </c>
+      <c r="D20">
+        <v>4781.89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4335</v>
+      </c>
+      <c r="B21">
+        <v>6317</v>
+      </c>
+      <c r="C21">
+        <v>8581</v>
+      </c>
+      <c r="D21">
+        <v>8480.440000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22">
+        <v>1826</v>
+      </c>
+      <c r="C22">
+        <v>9973</v>
+      </c>
+      <c r="D22">
+        <v>9885.780000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>5770</v>
+      </c>
+      <c r="B23">
+        <v>7157</v>
+      </c>
+      <c r="C23">
+        <v>9540</v>
+      </c>
+      <c r="D23">
+        <v>6647.83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>9163</v>
+      </c>
+      <c r="B24">
+        <v>2559</v>
+      </c>
+      <c r="C24">
+        <v>8855</v>
+      </c>
+      <c r="D24">
+        <v>6858.4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>9713</v>
+      </c>
+      <c r="B25">
+        <v>4887</v>
+      </c>
+      <c r="C25">
+        <v>2121</v>
+      </c>
+      <c r="D25">
+        <v>9468.32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>7406</v>
+      </c>
+      <c r="B26">
+        <v>7601</v>
+      </c>
+      <c r="C26">
+        <v>7166</v>
+      </c>
+      <c r="D26">
+        <v>4810.8</v>
       </c>
     </row>
   </sheetData>
@@ -1434,7 +4032,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1442,86 +4040,366 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>164</v>
+        <v>516</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>150</v>
+        <v>502</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>151</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>3919</v>
-      </c>
-      <c r="B2" t="s">
-        <v>165</v>
+        <v>5912</v>
+      </c>
+      <c r="B2" s="2">
+        <v>45768.47471633517</v>
       </c>
       <c r="C2">
-        <v>1883</v>
+        <v>8291</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>517</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>3577</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
+        <v>4838</v>
+      </c>
+      <c r="B3" s="2">
+        <v>45693.45377294383</v>
       </c>
       <c r="C3">
-        <v>5536</v>
+        <v>7604</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>7308</v>
-      </c>
-      <c r="B4" t="s">
-        <v>167</v>
+        <v>7032</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45669.63388634096</v>
       </c>
       <c r="C4">
-        <v>9710</v>
+        <v>2357</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3763</v>
-      </c>
-      <c r="B5" t="s">
-        <v>168</v>
+        <v>8516</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45853.04384519361</v>
       </c>
       <c r="C5">
-        <v>4928</v>
+        <v>6161</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3326</v>
-      </c>
-      <c r="B6" t="s">
-        <v>169</v>
+        <v>6216</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45774.28663494462</v>
       </c>
       <c r="C6">
-        <v>4771</v>
+        <v>7001</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>518</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6371</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45767.43981088408</v>
+      </c>
+      <c r="C7">
+        <v>6724</v>
+      </c>
+      <c r="D7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>932</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45665.97835771726</v>
+      </c>
+      <c r="C8">
+        <v>9576</v>
+      </c>
+      <c r="D8" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8129</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45743.7026755477</v>
+      </c>
+      <c r="C9">
+        <v>7626</v>
+      </c>
+      <c r="D9" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>408</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45691.14469228426</v>
+      </c>
+      <c r="C10">
+        <v>6347</v>
+      </c>
+      <c r="D10" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>5126</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45697.31232176414</v>
+      </c>
+      <c r="C11">
+        <v>1458</v>
+      </c>
+      <c r="D11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2661</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45805.47957232646</v>
+      </c>
+      <c r="C12">
+        <v>2026</v>
+      </c>
+      <c r="D12" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>9782</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45813.99623138867</v>
+      </c>
+      <c r="C13">
+        <v>7861</v>
+      </c>
+      <c r="D13" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>7277</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45850.42287450458</v>
+      </c>
+      <c r="C14">
+        <v>9882</v>
+      </c>
+      <c r="D14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>5549</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45794.56513604892</v>
+      </c>
+      <c r="C15">
+        <v>2591</v>
+      </c>
+      <c r="D15" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>872</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45756.97052805986</v>
+      </c>
+      <c r="C16">
+        <v>7922</v>
+      </c>
+      <c r="D16" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>642</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45853.56171655223</v>
+      </c>
+      <c r="C17">
+        <v>6837</v>
+      </c>
+      <c r="D17" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>991</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45827.1442831925</v>
+      </c>
+      <c r="C18">
+        <v>747</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>288</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45798.19597448612</v>
+      </c>
+      <c r="C19">
+        <v>3183</v>
+      </c>
+      <c r="D19" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5456</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45869.18075476985</v>
+      </c>
+      <c r="C20">
+        <v>1882</v>
+      </c>
+      <c r="D20" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>3592</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45797.13695398933</v>
+      </c>
+      <c r="C21">
+        <v>2475</v>
+      </c>
+      <c r="D21" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>4441</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45841.88495802814</v>
+      </c>
+      <c r="C22">
+        <v>239</v>
+      </c>
+      <c r="D22" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>9512</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45843.53986206013</v>
+      </c>
+      <c r="C23">
+        <v>2777</v>
+      </c>
+      <c r="D23" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>645</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45812.21201463247</v>
+      </c>
+      <c r="C24">
+        <v>2957</v>
+      </c>
+      <c r="D24" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>401</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45812.69038502036</v>
+      </c>
+      <c r="C25">
+        <v>7638</v>
+      </c>
+      <c r="D25" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>2413</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45678.65599660983</v>
+      </c>
+      <c r="C26">
+        <v>5792</v>
+      </c>
+      <c r="D26" t="s">
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -1531,7 +4409,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1539,86 +4417,366 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>533</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>4740</v>
+        <v>8210</v>
       </c>
       <c r="B2">
-        <v>764</v>
+        <v>2683</v>
       </c>
       <c r="C2">
-        <v>981.6900000000001</v>
+        <v>1173.41</v>
       </c>
       <c r="D2">
-        <v>2597</v>
+        <v>9407</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>7885</v>
+        <v>7697</v>
       </c>
       <c r="B3">
-        <v>7789</v>
+        <v>7913</v>
       </c>
       <c r="C3">
-        <v>1756.01</v>
+        <v>5008.32</v>
       </c>
       <c r="D3">
-        <v>6325</v>
+        <v>1941</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>8797</v>
+        <v>9856</v>
       </c>
       <c r="B4">
-        <v>8804</v>
+        <v>9073</v>
       </c>
       <c r="C4">
-        <v>7522.97</v>
+        <v>1605.17</v>
       </c>
       <c r="D4">
-        <v>2338</v>
+        <v>2276</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>8158</v>
+        <v>2677</v>
       </c>
       <c r="B5">
-        <v>5060</v>
+        <v>9977</v>
       </c>
       <c r="C5">
-        <v>2514.2</v>
+        <v>777.4299999999999</v>
       </c>
       <c r="D5">
-        <v>6836</v>
+        <v>5405</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5073</v>
+        <v>4725</v>
       </c>
       <c r="B6">
-        <v>3441</v>
+        <v>9165</v>
       </c>
       <c r="C6">
-        <v>153.03</v>
+        <v>3101.26</v>
       </c>
       <c r="D6">
-        <v>3776</v>
+        <v>2710</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>8433</v>
+      </c>
+      <c r="B7">
+        <v>9505</v>
+      </c>
+      <c r="C7">
+        <v>6239.05</v>
+      </c>
+      <c r="D7">
+        <v>8799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2051</v>
+      </c>
+      <c r="C8">
+        <v>9019.610000000001</v>
+      </c>
+      <c r="D8">
+        <v>8653</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>5116</v>
+      </c>
+      <c r="B9">
+        <v>9639</v>
+      </c>
+      <c r="C9">
+        <v>337.87</v>
+      </c>
+      <c r="D9">
+        <v>6249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2879</v>
+      </c>
+      <c r="B10">
+        <v>711</v>
+      </c>
+      <c r="C10">
+        <v>5083.65</v>
+      </c>
+      <c r="D10">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2465</v>
+      </c>
+      <c r="B11">
+        <v>1975</v>
+      </c>
+      <c r="C11">
+        <v>7648.94</v>
+      </c>
+      <c r="D11">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>2365</v>
+      </c>
+      <c r="B12">
+        <v>5403</v>
+      </c>
+      <c r="C12">
+        <v>1035.9</v>
+      </c>
+      <c r="D12">
+        <v>5097</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>3820</v>
+      </c>
+      <c r="B13">
+        <v>8154</v>
+      </c>
+      <c r="C13">
+        <v>4823.79</v>
+      </c>
+      <c r="D13">
+        <v>5113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>4708</v>
+      </c>
+      <c r="B14">
+        <v>9630</v>
+      </c>
+      <c r="C14">
+        <v>3992.08</v>
+      </c>
+      <c r="D14">
+        <v>6192</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>2056</v>
+      </c>
+      <c r="B15">
+        <v>7101</v>
+      </c>
+      <c r="C15">
+        <v>9827.629999999999</v>
+      </c>
+      <c r="D15">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>2251</v>
+      </c>
+      <c r="B16">
+        <v>2677</v>
+      </c>
+      <c r="C16">
+        <v>4616.43</v>
+      </c>
+      <c r="D16">
+        <v>2571</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>9467</v>
+      </c>
+      <c r="B17">
+        <v>9614</v>
+      </c>
+      <c r="C17">
+        <v>1620.79</v>
+      </c>
+      <c r="D17">
+        <v>8442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>1660</v>
+      </c>
+      <c r="B18">
+        <v>7510</v>
+      </c>
+      <c r="C18">
+        <v>8908.790000000001</v>
+      </c>
+      <c r="D18">
+        <v>9498</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>7846</v>
+      </c>
+      <c r="B19">
+        <v>2339</v>
+      </c>
+      <c r="C19">
+        <v>4824.99</v>
+      </c>
+      <c r="D19">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1843</v>
+      </c>
+      <c r="B20">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>3261.51</v>
+      </c>
+      <c r="D20">
+        <v>2577</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>7020</v>
+      </c>
+      <c r="B21">
+        <v>513</v>
+      </c>
+      <c r="C21">
+        <v>3545.13</v>
+      </c>
+      <c r="D21">
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>7809</v>
+      </c>
+      <c r="B22">
+        <v>3305</v>
+      </c>
+      <c r="C22">
+        <v>9884.35</v>
+      </c>
+      <c r="D22">
+        <v>9689</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>2346</v>
+      </c>
+      <c r="B23">
+        <v>1927</v>
+      </c>
+      <c r="C23">
+        <v>9723.23</v>
+      </c>
+      <c r="D23">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>9296</v>
+      </c>
+      <c r="B24">
+        <v>687</v>
+      </c>
+      <c r="C24">
+        <v>3244.06</v>
+      </c>
+      <c r="D24">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>5994</v>
+      </c>
+      <c r="B25">
+        <v>3531</v>
+      </c>
+      <c r="C25">
+        <v>5787.48</v>
+      </c>
+      <c r="D25">
+        <v>5942</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>5574</v>
+      </c>
+      <c r="B26">
+        <v>4553</v>
+      </c>
+      <c r="C26">
+        <v>1263.81</v>
+      </c>
+      <c r="D26">
+        <v>4051</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +4786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1647,57 +4805,277 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B2">
-        <v>3288</v>
+        <v>2758</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B3">
-        <v>402</v>
+        <v>6073</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="B4">
-        <v>8182</v>
+        <v>7884</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B5">
-        <v>5712</v>
+        <v>8718</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B6">
-        <v>2471</v>
+        <v>2505</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>2341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <v>1116</v>
+      </c>
+      <c r="C8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <v>9082</v>
+      </c>
+      <c r="C9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <v>1718</v>
+      </c>
+      <c r="C10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11">
+        <v>859</v>
+      </c>
+      <c r="C11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12">
+        <v>338</v>
+      </c>
+      <c r="C12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B13">
+        <v>8806</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14">
+        <v>9381</v>
+      </c>
+      <c r="C14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15">
+        <v>6578</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16">
+        <v>8978</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17">
+        <v>8300</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18">
+        <v>6692</v>
+      </c>
+      <c r="C18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19">
+        <v>7577</v>
+      </c>
+      <c r="C19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20">
+        <v>943</v>
+      </c>
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21">
+        <v>5633</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22">
+        <v>4283</v>
+      </c>
+      <c r="C22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>1922</v>
+      </c>
+      <c r="C23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>7056</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>3477</v>
+      </c>
+      <c r="C25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>6976</v>
+      </c>
+      <c r="C26" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1707,7 +5085,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1715,13 +5093,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -1730,107 +5108,507 @@
         <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>143</v>
       </c>
       <c r="D2">
-        <v>1361</v>
+        <v>8614</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>189</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>144</v>
       </c>
       <c r="D3">
-        <v>9261</v>
+        <v>9465</v>
       </c>
       <c r="E3" t="s">
-        <v>42</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="D4">
-        <v>2744</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="D5">
-        <v>409</v>
+        <v>2742</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>147</v>
       </c>
       <c r="D6">
-        <v>8919</v>
+        <v>8680</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D7">
+        <v>2632</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D8">
+        <v>2925</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9">
+        <v>8811</v>
+      </c>
+      <c r="E9" t="s">
+        <v>173</v>
+      </c>
+      <c r="F9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10">
+        <v>4711</v>
+      </c>
+      <c r="E10" t="s">
+        <v>174</v>
+      </c>
+      <c r="F10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D11">
+        <v>9388</v>
+      </c>
+      <c r="E11" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D12">
+        <v>8826</v>
+      </c>
+      <c r="E12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D13">
+        <v>3266</v>
+      </c>
+      <c r="E13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14">
+        <v>977</v>
+      </c>
+      <c r="E14" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" t="s">
+        <v>155</v>
+      </c>
+      <c r="D15">
+        <v>7918</v>
+      </c>
+      <c r="E15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" t="s">
+        <v>156</v>
+      </c>
+      <c r="D16">
+        <v>1245</v>
+      </c>
+      <c r="E16" t="s">
+        <v>180</v>
+      </c>
+      <c r="F16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17">
+        <v>5359</v>
+      </c>
+      <c r="E17" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18">
+        <v>1810</v>
+      </c>
+      <c r="E18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>115</v>
+      </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>5457</v>
+      </c>
+      <c r="E19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <v>8368</v>
+      </c>
+      <c r="E20" t="s">
+        <v>184</v>
+      </c>
+      <c r="F20" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D21">
+        <v>7316</v>
+      </c>
+      <c r="E21" t="s">
+        <v>185</v>
+      </c>
+      <c r="F21" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>162</v>
+      </c>
+      <c r="D22">
+        <v>1280</v>
+      </c>
+      <c r="E22" t="s">
+        <v>186</v>
+      </c>
+      <c r="F22" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" t="s">
+        <v>140</v>
+      </c>
+      <c r="C23" t="s">
+        <v>163</v>
+      </c>
+      <c r="D23">
+        <v>6368</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>164</v>
+      </c>
+      <c r="D24">
+        <v>6734</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>120</v>
+      </c>
+      <c r="B25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D25">
+        <v>7850</v>
+      </c>
+      <c r="E25" t="s">
+        <v>187</v>
+      </c>
+      <c r="F25" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" t="s">
+        <v>90</v>
+      </c>
+      <c r="D26">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>188</v>
+      </c>
+      <c r="F26" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -1840,7 +5618,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1848,13 +5626,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>207</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>208</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>209</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -1863,31 +5641,31 @@
         <v>1</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>54</v>
+        <v>210</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>55</v>
+        <v>211</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>56</v>
+        <v>212</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>57</v>
+        <v>213</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>58</v>
+        <v>214</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>59</v>
+        <v>215</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>60</v>
+        <v>216</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>61</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -1895,219 +5673,1099 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5344</v>
+        <v>2269</v>
       </c>
       <c r="C2">
-        <v>802</v>
+        <v>6199</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>218</v>
       </c>
       <c r="E2">
-        <v>5413</v>
+        <v>9293</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="H2">
-        <v>3834.98</v>
+        <v>7591.76</v>
       </c>
       <c r="I2">
-        <v>733</v>
+        <v>5765</v>
       </c>
       <c r="J2">
-        <v>3813</v>
+        <v>79</v>
       </c>
       <c r="K2">
-        <v>4405</v>
+        <v>5371</v>
       </c>
       <c r="L2" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="M2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="N2">
-        <v>3292</v>
+        <v>5055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3">
-        <v>6285</v>
+        <v>9037</v>
       </c>
       <c r="C3">
-        <v>8449</v>
+        <v>1079</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>219</v>
       </c>
       <c r="E3">
-        <v>3017</v>
+        <v>3996</v>
       </c>
       <c r="F3" t="s">
-        <v>68</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>73</v>
+        <v>221</v>
       </c>
       <c r="H3">
-        <v>2498.68</v>
+        <v>1653.47</v>
       </c>
       <c r="I3">
-        <v>9238</v>
+        <v>5726</v>
       </c>
       <c r="J3">
-        <v>7441</v>
+        <v>877</v>
       </c>
       <c r="K3">
-        <v>6357</v>
+        <v>9365</v>
       </c>
       <c r="L3" t="s">
-        <v>78</v>
+        <v>270</v>
       </c>
       <c r="M3" t="s">
-        <v>83</v>
+        <v>289</v>
       </c>
       <c r="N3">
-        <v>3429</v>
+        <v>4086</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>5593</v>
+        <v>4136</v>
       </c>
       <c r="C4">
-        <v>5272</v>
+        <v>4689</v>
       </c>
       <c r="D4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E4">
-        <v>1874</v>
+        <v>7147</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>74</v>
+        <v>255</v>
       </c>
       <c r="H4">
-        <v>2863.61</v>
+        <v>6.4</v>
       </c>
       <c r="I4">
-        <v>9753</v>
+        <v>8147</v>
       </c>
       <c r="J4">
-        <v>7150</v>
+        <v>6373</v>
       </c>
       <c r="K4">
-        <v>2770</v>
+        <v>4353</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="M4" t="s">
-        <v>84</v>
+        <v>290</v>
       </c>
       <c r="N4">
-        <v>1728</v>
+        <v>5539</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>8412</v>
+        <v>7106</v>
       </c>
       <c r="C5">
-        <v>2632</v>
+        <v>9558</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="E5">
-        <v>5660</v>
+        <v>5683</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>256</v>
       </c>
       <c r="H5">
-        <v>789.11</v>
+        <v>4997.11</v>
       </c>
       <c r="I5">
-        <v>5693</v>
+        <v>5544</v>
       </c>
       <c r="J5">
-        <v>7899</v>
+        <v>4604</v>
       </c>
       <c r="K5">
-        <v>3304</v>
+        <v>1209</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>291</v>
       </c>
       <c r="N5">
-        <v>5835</v>
+        <v>9743</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>6688</v>
+      </c>
+      <c r="C6">
+        <v>2445</v>
+      </c>
+      <c r="D6" t="s">
+        <v>221</v>
+      </c>
+      <c r="E6">
+        <v>477</v>
+      </c>
+      <c r="F6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H6">
+        <v>1492.16</v>
+      </c>
+      <c r="I6">
+        <v>3890</v>
+      </c>
+      <c r="J6">
+        <v>8463</v>
+      </c>
+      <c r="K6">
+        <v>4813</v>
+      </c>
+      <c r="L6" t="s">
+        <v>273</v>
+      </c>
+      <c r="M6" t="s">
+        <v>292</v>
+      </c>
+      <c r="N6">
+        <v>9687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>5433</v>
+      </c>
+      <c r="C7">
+        <v>5741</v>
+      </c>
+      <c r="D7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7">
+        <v>4534</v>
+      </c>
+      <c r="F7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H7">
+        <v>9746.790000000001</v>
+      </c>
+      <c r="I7">
+        <v>1635</v>
+      </c>
+      <c r="J7">
+        <v>615</v>
+      </c>
+      <c r="K7">
+        <v>765</v>
+      </c>
+      <c r="L7" t="s">
+        <v>274</v>
+      </c>
+      <c r="M7" t="s">
+        <v>293</v>
+      </c>
+      <c r="N7">
+        <v>5226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="b">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>9755</v>
-      </c>
-      <c r="C6">
-        <v>4151</v>
-      </c>
-      <c r="D6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E6">
-        <v>6645</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="B8">
+        <v>367</v>
+      </c>
+      <c r="C8">
+        <v>6022</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8">
+        <v>8564</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>257</v>
+      </c>
+      <c r="H8">
+        <v>8969.129999999999</v>
+      </c>
+      <c r="I8">
+        <v>2324</v>
+      </c>
+      <c r="J8">
+        <v>8928</v>
+      </c>
+      <c r="K8">
+        <v>7406</v>
+      </c>
+      <c r="L8" t="s">
+        <v>275</v>
+      </c>
+      <c r="M8" t="s">
+        <v>294</v>
+      </c>
+      <c r="N8">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="b">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>6583</v>
+      </c>
+      <c r="C9">
+        <v>3883</v>
+      </c>
+      <c r="D9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9">
+        <v>8226</v>
+      </c>
+      <c r="F9" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H9">
+        <v>913.5700000000001</v>
+      </c>
+      <c r="I9">
+        <v>3814</v>
+      </c>
+      <c r="J9">
+        <v>9014</v>
+      </c>
+      <c r="K9">
+        <v>9645</v>
+      </c>
+      <c r="L9" t="s">
+        <v>183</v>
+      </c>
+      <c r="M9" t="s">
+        <v>295</v>
+      </c>
+      <c r="N9">
+        <v>8525</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="b">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>6023</v>
+      </c>
+      <c r="C10">
+        <v>1313</v>
+      </c>
+      <c r="D10" t="s">
+        <v>222</v>
+      </c>
+      <c r="E10">
+        <v>5982</v>
+      </c>
+      <c r="F10" t="s">
+        <v>144</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10">
+        <v>5544.77</v>
+      </c>
+      <c r="I10">
+        <v>3455</v>
+      </c>
+      <c r="J10">
+        <v>4958</v>
+      </c>
+      <c r="K10">
+        <v>8482</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="s">
         <v>71</v>
       </c>
-      <c r="G6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6">
-        <v>3209.38</v>
-      </c>
-      <c r="I6">
-        <v>4273</v>
-      </c>
-      <c r="J6">
-        <v>3377</v>
-      </c>
-      <c r="K6">
-        <v>2369</v>
-      </c>
-      <c r="L6" t="s">
+      <c r="N10">
+        <v>4498</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="b">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2618</v>
+      </c>
+      <c r="C11">
+        <v>3750</v>
+      </c>
+      <c r="D11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E11">
+        <v>6476</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11">
+        <v>1164.57</v>
+      </c>
+      <c r="I11">
+        <v>7248</v>
+      </c>
+      <c r="J11">
+        <v>7166</v>
+      </c>
+      <c r="K11">
+        <v>7993</v>
+      </c>
+      <c r="L11" t="s">
+        <v>236</v>
+      </c>
+      <c r="M11" t="s">
+        <v>296</v>
+      </c>
+      <c r="N11">
+        <v>6726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="b">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>3900</v>
+      </c>
+      <c r="C12">
+        <v>8977</v>
+      </c>
+      <c r="D12" t="s">
+        <v>224</v>
+      </c>
+      <c r="E12">
+        <v>3067</v>
+      </c>
+      <c r="F12" t="s">
+        <v>243</v>
+      </c>
+      <c r="G12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H12">
+        <v>1332.66</v>
+      </c>
+      <c r="I12">
+        <v>8270</v>
+      </c>
+      <c r="J12">
+        <v>7385</v>
+      </c>
+      <c r="K12">
+        <v>1699</v>
+      </c>
+      <c r="L12" t="s">
+        <v>276</v>
+      </c>
+      <c r="M12" t="s">
+        <v>297</v>
+      </c>
+      <c r="N12">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" t="b">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>3409</v>
+      </c>
+      <c r="C13">
+        <v>3183</v>
+      </c>
+      <c r="D13" t="s">
+        <v>225</v>
+      </c>
+      <c r="E13">
+        <v>7787</v>
+      </c>
+      <c r="F13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" t="s">
+        <v>261</v>
+      </c>
+      <c r="H13">
+        <v>1056.57</v>
+      </c>
+      <c r="I13">
+        <v>8730</v>
+      </c>
+      <c r="J13">
+        <v>2200</v>
+      </c>
+      <c r="K13">
+        <v>4520</v>
+      </c>
+      <c r="L13" t="s">
+        <v>277</v>
+      </c>
+      <c r="M13" t="s">
+        <v>298</v>
+      </c>
+      <c r="N13">
+        <v>6749</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" t="b">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>8883</v>
+      </c>
+      <c r="C14">
+        <v>5336</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E14">
+        <v>8185</v>
+      </c>
+      <c r="F14" t="s">
+        <v>245</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14">
+        <v>3135.84</v>
+      </c>
+      <c r="I14">
+        <v>8153</v>
+      </c>
+      <c r="J14">
+        <v>9443</v>
+      </c>
+      <c r="K14">
+        <v>6103</v>
+      </c>
+      <c r="L14" t="s">
+        <v>278</v>
+      </c>
+      <c r="M14" t="s">
+        <v>299</v>
+      </c>
+      <c r="N14">
+        <v>7415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" t="b">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2968</v>
+      </c>
+      <c r="C15">
+        <v>8188</v>
+      </c>
+      <c r="D15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15">
+        <v>6987</v>
+      </c>
+      <c r="F15" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" t="s">
+        <v>145</v>
+      </c>
+      <c r="H15">
+        <v>7636.54</v>
+      </c>
+      <c r="I15">
+        <v>5158</v>
+      </c>
+      <c r="J15">
+        <v>6490</v>
+      </c>
+      <c r="K15">
+        <v>9013</v>
+      </c>
+      <c r="L15" t="s">
+        <v>279</v>
+      </c>
+      <c r="M15" t="s">
+        <v>300</v>
+      </c>
+      <c r="N15">
+        <v>7875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" t="b">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>2850</v>
+      </c>
+      <c r="C16">
+        <v>8062</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>4269</v>
+      </c>
+      <c r="F16" t="s">
+        <v>246</v>
+      </c>
+      <c r="G16" t="s">
+        <v>262</v>
+      </c>
+      <c r="H16">
+        <v>8562.76</v>
+      </c>
+      <c r="I16">
+        <v>5243</v>
+      </c>
+      <c r="J16">
+        <v>3536</v>
+      </c>
+      <c r="K16">
+        <v>1615</v>
+      </c>
+      <c r="L16" t="s">
+        <v>280</v>
+      </c>
+      <c r="M16" t="s">
+        <v>301</v>
+      </c>
+      <c r="N16">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="b">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2489</v>
+      </c>
+      <c r="C17">
+        <v>6665</v>
+      </c>
+      <c r="D17" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17">
+        <v>6387</v>
+      </c>
+      <c r="F17" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" t="s">
         <v>81</v>
       </c>
-      <c r="M6" t="s">
-        <v>85</v>
-      </c>
-      <c r="N6">
-        <v>3357</v>
+      <c r="H17">
+        <v>1604.26</v>
+      </c>
+      <c r="I17">
+        <v>109</v>
+      </c>
+      <c r="J17">
+        <v>1995</v>
+      </c>
+      <c r="K17">
+        <v>572</v>
+      </c>
+      <c r="L17" t="s">
+        <v>281</v>
+      </c>
+      <c r="M17" t="s">
+        <v>302</v>
+      </c>
+      <c r="N17">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="b">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>6148</v>
+      </c>
+      <c r="C18">
+        <v>5667</v>
+      </c>
+      <c r="D18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E18">
+        <v>138</v>
+      </c>
+      <c r="F18" t="s">
+        <v>247</v>
+      </c>
+      <c r="G18" t="s">
+        <v>263</v>
+      </c>
+      <c r="H18">
+        <v>831.72</v>
+      </c>
+      <c r="I18">
+        <v>6115</v>
+      </c>
+      <c r="J18">
+        <v>8702</v>
+      </c>
+      <c r="K18">
+        <v>1287</v>
+      </c>
+      <c r="L18" t="s">
+        <v>282</v>
+      </c>
+      <c r="M18" t="s">
+        <v>303</v>
+      </c>
+      <c r="N18">
+        <v>5432</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="b">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>6063</v>
+      </c>
+      <c r="C19">
+        <v>5241</v>
+      </c>
+      <c r="D19" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19">
+        <v>8066</v>
+      </c>
+      <c r="F19" t="s">
+        <v>248</v>
+      </c>
+      <c r="G19" t="s">
+        <v>264</v>
+      </c>
+      <c r="H19">
+        <v>5013.37</v>
+      </c>
+      <c r="I19">
+        <v>1037</v>
+      </c>
+      <c r="J19">
+        <v>530</v>
+      </c>
+      <c r="K19">
+        <v>8270</v>
+      </c>
+      <c r="L19" t="s">
+        <v>86</v>
+      </c>
+      <c r="M19" t="s">
+        <v>304</v>
+      </c>
+      <c r="N19">
+        <v>6169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="b">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>9706</v>
+      </c>
+      <c r="C20">
+        <v>2356</v>
+      </c>
+      <c r="D20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E20">
+        <v>1270</v>
+      </c>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20">
+        <v>5989.49</v>
+      </c>
+      <c r="I20">
+        <v>2487</v>
+      </c>
+      <c r="J20">
+        <v>457</v>
+      </c>
+      <c r="K20">
+        <v>1885</v>
+      </c>
+      <c r="L20" t="s">
+        <v>283</v>
+      </c>
+      <c r="M20" t="s">
+        <v>305</v>
+      </c>
+      <c r="N20">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="b">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>6167</v>
+      </c>
+      <c r="C21">
+        <v>9419</v>
+      </c>
+      <c r="D21" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21">
+        <v>4391</v>
+      </c>
+      <c r="F21" t="s">
+        <v>249</v>
+      </c>
+      <c r="G21" t="s">
+        <v>265</v>
+      </c>
+      <c r="H21">
+        <v>1106.66</v>
+      </c>
+      <c r="I21">
+        <v>2099</v>
+      </c>
+      <c r="J21">
+        <v>5171</v>
+      </c>
+      <c r="K21">
+        <v>3611</v>
+      </c>
+      <c r="L21" t="s">
+        <v>284</v>
+      </c>
+      <c r="M21" t="s">
+        <v>306</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="b">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>5572</v>
+      </c>
+      <c r="C22">
+        <v>9415</v>
+      </c>
+      <c r="D22" t="s">
+        <v>232</v>
+      </c>
+      <c r="E22">
+        <v>7080</v>
+      </c>
+      <c r="F22" t="s">
+        <v>250</v>
+      </c>
+      <c r="G22" t="s">
+        <v>266</v>
+      </c>
+      <c r="H22">
+        <v>3907.65</v>
+      </c>
+      <c r="I22">
+        <v>2328</v>
+      </c>
+      <c r="J22">
+        <v>4791</v>
+      </c>
+      <c r="K22">
+        <v>615</v>
+      </c>
+      <c r="L22" t="s">
+        <v>285</v>
+      </c>
+      <c r="M22" t="s">
+        <v>307</v>
+      </c>
+      <c r="N22">
+        <v>4807</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="b">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>9413</v>
+      </c>
+      <c r="C23">
+        <v>2637</v>
+      </c>
+      <c r="D23" t="s">
+        <v>233</v>
+      </c>
+      <c r="E23">
+        <v>3079</v>
+      </c>
+      <c r="F23" t="s">
+        <v>251</v>
+      </c>
+      <c r="G23" t="s">
+        <v>267</v>
+      </c>
+      <c r="H23">
+        <v>3417.11</v>
+      </c>
+      <c r="I23">
+        <v>3267</v>
+      </c>
+      <c r="J23">
+        <v>1213</v>
+      </c>
+      <c r="K23">
+        <v>4931</v>
+      </c>
+      <c r="L23" t="s">
+        <v>286</v>
+      </c>
+      <c r="M23" t="s">
+        <v>308</v>
+      </c>
+      <c r="N23">
+        <v>2373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="b">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>8934</v>
+      </c>
+      <c r="C24">
+        <v>7950</v>
+      </c>
+      <c r="D24" t="s">
+        <v>234</v>
+      </c>
+      <c r="E24">
+        <v>221</v>
+      </c>
+      <c r="F24" t="s">
+        <v>252</v>
+      </c>
+      <c r="G24" t="s">
+        <v>111</v>
+      </c>
+      <c r="H24">
+        <v>2797.31</v>
+      </c>
+      <c r="I24">
+        <v>848</v>
+      </c>
+      <c r="J24">
+        <v>6563</v>
+      </c>
+      <c r="K24">
+        <v>9970</v>
+      </c>
+      <c r="L24" t="s">
+        <v>287</v>
+      </c>
+      <c r="M24" t="s">
+        <v>247</v>
+      </c>
+      <c r="N24">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="b">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>9637</v>
+      </c>
+      <c r="C25">
+        <v>4927</v>
+      </c>
+      <c r="D25" t="s">
+        <v>235</v>
+      </c>
+      <c r="E25">
+        <v>2272</v>
+      </c>
+      <c r="F25" t="s">
+        <v>253</v>
+      </c>
+      <c r="G25" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25">
+        <v>8734.889999999999</v>
+      </c>
+      <c r="I25">
+        <v>3013</v>
+      </c>
+      <c r="J25">
+        <v>1122</v>
+      </c>
+      <c r="K25">
+        <v>3347</v>
+      </c>
+      <c r="L25" t="s">
+        <v>200</v>
+      </c>
+      <c r="M25" t="s">
+        <v>309</v>
+      </c>
+      <c r="N25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="b">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>5882</v>
+      </c>
+      <c r="C26">
+        <v>6331</v>
+      </c>
+      <c r="D26" t="s">
+        <v>152</v>
+      </c>
+      <c r="E26">
+        <v>6676</v>
+      </c>
+      <c r="F26" t="s">
+        <v>254</v>
+      </c>
+      <c r="G26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H26">
+        <v>7936.22</v>
+      </c>
+      <c r="I26">
+        <v>5104</v>
+      </c>
+      <c r="J26">
+        <v>2695</v>
+      </c>
+      <c r="K26">
+        <v>3880</v>
+      </c>
+      <c r="L26" t="s">
+        <v>288</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26">
+        <v>9008</v>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +6775,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2131,62 +6789,282 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>86</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>3319</v>
+        <v>2573</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C2">
-        <v>701.95</v>
+        <v>408.81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>646</v>
+        <v>2875</v>
       </c>
       <c r="B3" t="s">
-        <v>88</v>
+        <v>311</v>
       </c>
       <c r="C3">
-        <v>7501</v>
+        <v>4899.85</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8103</v>
+        <v>4930</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="C4">
-        <v>170.41</v>
+        <v>7678.43</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9283</v>
+        <v>6307</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>313</v>
       </c>
       <c r="C5">
-        <v>9023.690000000001</v>
+        <v>3347.02</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2526</v>
+        <v>2869</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>314</v>
       </c>
       <c r="C6">
-        <v>8375.469999999999</v>
+        <v>9612.25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>8378</v>
+      </c>
+      <c r="B7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7">
+        <v>1694.24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8">
+        <v>2432.26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>4236</v>
+      </c>
+      <c r="B9" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9">
+        <v>6710.56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>8410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>291</v>
+      </c>
+      <c r="C10">
+        <v>1542.63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11" t="s">
+        <v>317</v>
+      </c>
+      <c r="C11">
+        <v>7970.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>3318</v>
+      </c>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
+      <c r="C12">
+        <v>8768.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1080</v>
+      </c>
+      <c r="B13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C13">
+        <v>4345.77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>9996</v>
+      </c>
+      <c r="B14" t="s">
+        <v>320</v>
+      </c>
+      <c r="C14">
+        <v>9840.68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>8318</v>
+      </c>
+      <c r="B15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C15">
+        <v>1672.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>4495</v>
+      </c>
+      <c r="B16" t="s">
+        <v>322</v>
+      </c>
+      <c r="C16">
+        <v>5383.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>6683</v>
+      </c>
+      <c r="B17" t="s">
+        <v>323</v>
+      </c>
+      <c r="C17">
+        <v>1888.08</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>7377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>324</v>
+      </c>
+      <c r="C18">
+        <v>8306.82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2285</v>
+      </c>
+      <c r="B19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C19">
+        <v>3563.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>8899</v>
+      </c>
+      <c r="B20" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20">
+        <v>7103.54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2299</v>
+      </c>
+      <c r="B21" t="s">
+        <v>325</v>
+      </c>
+      <c r="C21">
+        <v>8760.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>4634</v>
+      </c>
+      <c r="B22" t="s">
+        <v>311</v>
+      </c>
+      <c r="C22">
+        <v>9311.049999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>5190</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23">
+        <v>5859.43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>9385</v>
+      </c>
+      <c r="B24" t="s">
+        <v>327</v>
+      </c>
+      <c r="C24">
+        <v>1696.1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>8902</v>
+      </c>
+      <c r="B25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C25">
+        <v>4044.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>160</v>
+      </c>
+      <c r="B26" t="s">
+        <v>328</v>
+      </c>
+      <c r="C26">
+        <v>952.71</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +7074,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2204,7 +7082,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>329</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2213,77 +7091,357 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>5478.38</v>
+        <v>546.51</v>
       </c>
       <c r="B2">
-        <v>4747</v>
+        <v>1815</v>
       </c>
       <c r="C2" t="s">
-        <v>94</v>
+        <v>331</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>5602.62</v>
+        <v>1206.63</v>
       </c>
       <c r="B3">
-        <v>2865</v>
+        <v>6516</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>86</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>821.55</v>
+        <v>204.33</v>
       </c>
       <c r="B4">
-        <v>3070</v>
+        <v>2950</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>100</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2347.69</v>
+        <v>5858.4</v>
       </c>
       <c r="B5">
-        <v>9882</v>
+        <v>9339</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
-        <v>101</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5935.58</v>
+        <v>6335.13</v>
       </c>
       <c r="B6">
-        <v>577</v>
+        <v>6622</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>332</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>8625.040000000001</v>
+      </c>
+      <c r="B7">
+        <v>2438</v>
+      </c>
+      <c r="C7" t="s">
+        <v>333</v>
+      </c>
+      <c r="D7" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7885.32</v>
+      </c>
+      <c r="B8">
+        <v>2330</v>
+      </c>
+      <c r="C8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>4406.48</v>
+      </c>
+      <c r="B9">
+        <v>5380</v>
+      </c>
+      <c r="C9" t="s">
+        <v>295</v>
+      </c>
+      <c r="D9" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>2038.3</v>
+      </c>
+      <c r="B10">
+        <v>2591</v>
+      </c>
+      <c r="C10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>2430.3</v>
+      </c>
+      <c r="B11">
+        <v>3174</v>
+      </c>
+      <c r="C11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>5109.31</v>
+      </c>
+      <c r="B12">
+        <v>3208</v>
+      </c>
+      <c r="C12" t="s">
+        <v>308</v>
+      </c>
+      <c r="D12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>1047</v>
+      </c>
+      <c r="B13">
+        <v>1153</v>
+      </c>
+      <c r="C13" t="s">
+        <v>334</v>
+      </c>
+      <c r="D13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>6854.1</v>
+      </c>
+      <c r="B14">
+        <v>5243</v>
+      </c>
+      <c r="C14" t="s">
+        <v>335</v>
+      </c>
+      <c r="D14" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>4355.23</v>
+      </c>
+      <c r="B15">
+        <v>5193</v>
+      </c>
+      <c r="C15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D15" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>1564.86</v>
+      </c>
+      <c r="B16">
+        <v>5277</v>
+      </c>
+      <c r="C16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>8907.030000000001</v>
+      </c>
+      <c r="B17">
+        <v>988</v>
+      </c>
+      <c r="C17" t="s">
+        <v>338</v>
+      </c>
+      <c r="D17" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>7346.4</v>
+      </c>
+      <c r="B18">
+        <v>4850</v>
+      </c>
+      <c r="C18" t="s">
+        <v>339</v>
+      </c>
+      <c r="D18" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>8186.54</v>
+      </c>
+      <c r="B19">
+        <v>1671</v>
+      </c>
+      <c r="C19" t="s">
+        <v>340</v>
+      </c>
+      <c r="D19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>5337.02</v>
+      </c>
+      <c r="B20">
+        <v>6634</v>
+      </c>
+      <c r="C20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>4745.78</v>
+      </c>
+      <c r="B21">
+        <v>552</v>
+      </c>
+      <c r="C21" t="s">
+        <v>206</v>
+      </c>
+      <c r="D21" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>5060.86</v>
+      </c>
+      <c r="B22">
+        <v>9051</v>
+      </c>
+      <c r="C22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>9557.790000000001</v>
+      </c>
+      <c r="B23">
+        <v>4630</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>9913.120000000001</v>
+      </c>
+      <c r="B24">
+        <v>4406</v>
+      </c>
+      <c r="C24" t="s">
+        <v>341</v>
+      </c>
+      <c r="D24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>8342.360000000001</v>
+      </c>
+      <c r="B25">
+        <v>1546</v>
+      </c>
+      <c r="C25" t="s">
+        <v>256</v>
+      </c>
+      <c r="D25" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>7915.7</v>
+      </c>
+      <c r="B26">
+        <v>6455</v>
+      </c>
+      <c r="C26" t="s">
+        <v>342</v>
+      </c>
+      <c r="D26" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -2293,7 +7451,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2304,7 +7462,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>103</v>
+        <v>360</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -2312,57 +7470,277 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>4770</v>
+        <v>1750</v>
       </c>
       <c r="B2">
-        <v>1513.34</v>
+        <v>9677.59</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>5034</v>
+        <v>2578</v>
       </c>
       <c r="B3">
-        <v>5653.3</v>
+        <v>9973.83</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>8232</v>
+        <v>8867</v>
       </c>
       <c r="B4">
-        <v>9500.440000000001</v>
+        <v>3608.22</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5">
-        <v>9605</v>
+        <v>4875</v>
       </c>
       <c r="B5">
-        <v>8268.940000000001</v>
+        <v>145.51</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6">
-        <v>2023</v>
+        <v>1632</v>
       </c>
       <c r="B6">
-        <v>4319.93</v>
+        <v>7251.55</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>5371</v>
+      </c>
+      <c r="B7">
+        <v>6251.56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1154</v>
+      </c>
+      <c r="B8">
+        <v>3974.61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>5002</v>
+      </c>
+      <c r="B9">
+        <v>6826.05</v>
+      </c>
+      <c r="C9" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>4782</v>
+      </c>
+      <c r="B10">
+        <v>7096.11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>5807</v>
+      </c>
+      <c r="B11">
+        <v>9545.91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>5967</v>
+      </c>
+      <c r="B12">
+        <v>2011.23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>308</v>
+      </c>
+      <c r="B13">
+        <v>2922.25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>6654</v>
+      </c>
+      <c r="B14">
+        <v>8716.35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>4522</v>
+      </c>
+      <c r="B15">
+        <v>8451.15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>8289</v>
+      </c>
+      <c r="B16">
+        <v>3206.48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>4518</v>
+      </c>
+      <c r="B17">
+        <v>5858.93</v>
+      </c>
+      <c r="C17" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>6770</v>
+      </c>
+      <c r="B18">
+        <v>773.66</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2541</v>
+      </c>
+      <c r="B19">
+        <v>2438.56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>7011</v>
+      </c>
+      <c r="B20">
+        <v>8883.940000000001</v>
+      </c>
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>6006</v>
+      </c>
+      <c r="B21">
+        <v>3138.68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>7639</v>
+      </c>
+      <c r="B22">
+        <v>6432.78</v>
+      </c>
+      <c r="C22" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>6852</v>
+      </c>
+      <c r="B23">
+        <v>2003.19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>1062</v>
+      </c>
+      <c r="B24">
+        <v>1533.74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>5712</v>
+      </c>
+      <c r="B25">
+        <v>7225.1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>577</v>
+      </c>
+      <c r="B26">
+        <v>3923.16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>
@@ -2372,7 +7750,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2380,7 +7758,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -2391,57 +7769,277 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>374</v>
       </c>
       <c r="B2">
-        <v>5313</v>
+        <v>2864</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="B3">
-        <v>2380</v>
+        <v>1781</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
       <c r="B4">
-        <v>6512</v>
+        <v>660</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>112</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>5364</v>
+        <v>680</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>377</v>
       </c>
       <c r="B6">
-        <v>1756</v>
+        <v>3992</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7">
+        <v>9868</v>
+      </c>
+      <c r="C7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8">
+        <v>2919</v>
+      </c>
+      <c r="C8" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B9">
+        <v>9487</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10">
+        <v>6257</v>
+      </c>
+      <c r="C10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11">
+        <v>9087</v>
+      </c>
+      <c r="C11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12">
+        <v>4059</v>
+      </c>
+      <c r="C12" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B13">
+        <v>7266</v>
+      </c>
+      <c r="C13" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14">
+        <v>3145</v>
+      </c>
+      <c r="C14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B15">
+        <v>7456</v>
+      </c>
+      <c r="C15" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B16">
+        <v>5504</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B17">
+        <v>5378</v>
+      </c>
+      <c r="C17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>385</v>
+      </c>
+      <c r="B18">
+        <v>3223</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19">
+        <v>5841</v>
+      </c>
+      <c r="C19" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>387</v>
+      </c>
+      <c r="B20">
+        <v>4119</v>
+      </c>
+      <c r="C20" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21">
+        <v>8245</v>
+      </c>
+      <c r="C21" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22">
+        <v>9029</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>388</v>
+      </c>
+      <c r="B23">
+        <v>9714</v>
+      </c>
+      <c r="C23" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>389</v>
+      </c>
+      <c r="B24">
+        <v>9379</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>390</v>
+      </c>
+      <c r="B25">
+        <v>616</v>
+      </c>
+      <c r="C25" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>391</v>
+      </c>
+      <c r="B26">
+        <v>2043</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2451,7 +8049,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2462,83 +8060,363 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>117</v>
+        <v>404</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>118</v>
+        <v>405</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>119</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>313</v>
+        <v>3104</v>
       </c>
       <c r="B2">
-        <v>1610</v>
+        <v>3044</v>
       </c>
       <c r="C2">
-        <v>6076</v>
+        <v>3132</v>
       </c>
       <c r="D2">
-        <v>5379</v>
+        <v>4693</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>8065</v>
+        <v>5870</v>
       </c>
       <c r="B3">
-        <v>2452</v>
+        <v>4898</v>
       </c>
       <c r="C3">
-        <v>9277</v>
+        <v>5330</v>
       </c>
       <c r="D3">
-        <v>7887</v>
+        <v>6576</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3635</v>
+        <v>5795</v>
       </c>
       <c r="B4">
-        <v>8795</v>
+        <v>9797</v>
       </c>
       <c r="C4">
-        <v>8248</v>
+        <v>7353</v>
       </c>
       <c r="D4">
-        <v>8345</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2520</v>
+        <v>8928</v>
       </c>
       <c r="B5">
-        <v>9326</v>
+        <v>6967</v>
       </c>
       <c r="C5">
-        <v>7581</v>
+        <v>3188</v>
       </c>
       <c r="D5">
-        <v>8701</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>9009</v>
+        <v>6732</v>
       </c>
       <c r="B6">
-        <v>3483</v>
+        <v>3229</v>
       </c>
       <c r="C6">
-        <v>4010</v>
+        <v>5437</v>
       </c>
       <c r="D6">
-        <v>2455</v>
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>918</v>
+      </c>
+      <c r="B7">
+        <v>4443</v>
+      </c>
+      <c r="C7">
+        <v>2264</v>
+      </c>
+      <c r="D7">
+        <v>7753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>3898</v>
+      </c>
+      <c r="B8">
+        <v>471</v>
+      </c>
+      <c r="C8">
+        <v>9869</v>
+      </c>
+      <c r="D8">
+        <v>3215</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>2213</v>
+      </c>
+      <c r="B9">
+        <v>7676</v>
+      </c>
+      <c r="C9">
+        <v>614</v>
+      </c>
+      <c r="D9">
+        <v>8709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>7567</v>
+      </c>
+      <c r="B10">
+        <v>2155</v>
+      </c>
+      <c r="C10">
+        <v>1346</v>
+      </c>
+      <c r="D10">
+        <v>8190</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>7148</v>
+      </c>
+      <c r="B11">
+        <v>677</v>
+      </c>
+      <c r="C11">
+        <v>7988</v>
+      </c>
+      <c r="D11">
+        <v>4115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>3948</v>
+      </c>
+      <c r="B12">
+        <v>9682</v>
+      </c>
+      <c r="C12">
+        <v>6069</v>
+      </c>
+      <c r="D12">
+        <v>9398</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>5517</v>
+      </c>
+      <c r="B13">
+        <v>3503</v>
+      </c>
+      <c r="C13">
+        <v>1487</v>
+      </c>
+      <c r="D13">
+        <v>7005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>8045</v>
+      </c>
+      <c r="B14">
+        <v>2853</v>
+      </c>
+      <c r="C14">
+        <v>5879</v>
+      </c>
+      <c r="D14">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>5949</v>
+      </c>
+      <c r="B15">
+        <v>4182</v>
+      </c>
+      <c r="C15">
+        <v>8761</v>
+      </c>
+      <c r="D15">
+        <v>6485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>3376</v>
+      </c>
+      <c r="B16">
+        <v>7890</v>
+      </c>
+      <c r="C16">
+        <v>5771</v>
+      </c>
+      <c r="D16">
+        <v>7168</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17">
+        <v>6943</v>
+      </c>
+      <c r="B17">
+        <v>7606</v>
+      </c>
+      <c r="C17">
+        <v>8347</v>
+      </c>
+      <c r="D17">
+        <v>5177</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>9458</v>
+      </c>
+      <c r="B18">
+        <v>2545</v>
+      </c>
+      <c r="C18">
+        <v>9772</v>
+      </c>
+      <c r="D18">
+        <v>4948</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>8647</v>
+      </c>
+      <c r="B19">
+        <v>2375</v>
+      </c>
+      <c r="C19">
+        <v>6935</v>
+      </c>
+      <c r="D19">
+        <v>8777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>9942</v>
+      </c>
+      <c r="B20">
+        <v>8119</v>
+      </c>
+      <c r="C20">
+        <v>8902</v>
+      </c>
+      <c r="D20">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1030</v>
+      </c>
+      <c r="B21">
+        <v>3409</v>
+      </c>
+      <c r="C21">
+        <v>7925</v>
+      </c>
+      <c r="D21">
+        <v>5313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>5570</v>
+      </c>
+      <c r="B22">
+        <v>6551</v>
+      </c>
+      <c r="C22">
+        <v>907</v>
+      </c>
+      <c r="D22">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>3606</v>
+      </c>
+      <c r="B23">
+        <v>3565</v>
+      </c>
+      <c r="C23">
+        <v>6484</v>
+      </c>
+      <c r="D23">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>9507</v>
+      </c>
+      <c r="B24">
+        <v>3628</v>
+      </c>
+      <c r="C24">
+        <v>3865</v>
+      </c>
+      <c r="D24">
+        <v>7694</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>983</v>
+      </c>
+      <c r="B25">
+        <v>5251</v>
+      </c>
+      <c r="C25">
+        <v>7413</v>
+      </c>
+      <c r="D25">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>654</v>
+      </c>
+      <c r="B26">
+        <v>221</v>
+      </c>
+      <c r="C26">
+        <v>272</v>
+      </c>
+      <c r="D26">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
